--- a/data-fetching/werkzittingen/template_wz2.xlsx
+++ b/data-fetching/werkzittingen/template_wz2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff\Documents\Kuleuven\FeedbackVisuals\FeedbackVisuals\data-fetching\werkzittingen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46ED0C0-9E4F-4AB5-890E-1F2FD4B21608}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CEEA4D-DFAF-42F6-9172-DED50854C3E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ECCF5C31-E73D-41E6-A20B-1B020134CB8E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Q4</t>
   </si>
@@ -104,13 +104,16 @@
   <si>
     <t>Q143</t>
   </si>
+  <si>
+    <t>gewicht vraag</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -176,7 +179,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -496,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8FD038-3A68-48E2-8948-48864369A52F}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,7 +513,7 @@
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -520,35 +523,38 @@
       <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3">
-        <v>1</v>
-      </c>
       <c r="F1" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3">
         <v>2</v>
       </c>
-      <c r="G1" s="3">
+      <c r="H1" s="3">
         <v>3</v>
       </c>
-      <c r="H1" s="3">
+      <c r="I1" s="3">
         <v>4</v>
       </c>
-      <c r="I1" s="3">
+      <c r="J1" s="3">
         <v>5</v>
       </c>
-      <c r="J1" s="3">
+      <c r="K1" s="3">
         <v>6</v>
       </c>
-      <c r="K1" s="3">
+      <c r="L1" s="3">
         <v>7</v>
       </c>
-      <c r="L1" s="3">
+      <c r="M1" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,31 +564,34 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="7">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
         <v>1</v>
       </c>
       <c r="F2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="5">
         <v>0</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
         <v>0.5</v>
       </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
       <c r="J2" s="5">
         <v>0</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
       <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -592,20 +601,20 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="4">
         <v>0</v>
@@ -613,10 +622,13 @@
       <c r="J3" s="4">
         <v>0</v>
       </c>
-      <c r="K3" s="1"/>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
       <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -626,11 +638,11 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -642,15 +654,18 @@
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
       <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -660,20 +675,20 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
@@ -681,10 +696,13 @@
       <c r="J5" s="4">
         <v>0</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
       <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -694,11 +712,11 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -707,18 +725,21 @@
         <v>0</v>
       </c>
       <c r="H6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="4">
         <v>0</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
       <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -728,10 +749,10 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
         <v>1</v>
       </c>
       <c r="F7" s="4">
@@ -744,17 +765,20 @@
         <v>1</v>
       </c>
       <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
         <v>0.5</v>
       </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
       <c r="K7" s="4">
         <v>0</v>
       </c>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -764,29 +788,32 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
       </c>
       <c r="F8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
         <v>0.5</v>
       </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
       <c r="I8" s="4">
         <v>0</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -796,17 +823,17 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
       </c>
       <c r="F9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
@@ -820,9 +847,12 @@
       <c r="K9" s="4">
         <v>0</v>
       </c>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -832,11 +862,11 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -848,17 +878,20 @@
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
       </c>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,29 +901,32 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
         <v>1</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
       </c>
       <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
         <v>0.5</v>
       </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
       <c r="I11" s="4">
         <v>0</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -900,14 +936,14 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
         <v>1</v>
       </c>
       <c r="F12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
@@ -924,9 +960,12 @@
       <c r="K12" s="4">
         <v>0</v>
       </c>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -936,14 +975,14 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
         <v>5.5</v>
       </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
       <c r="F13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="4">
         <v>1</v>
@@ -958,9 +997,12 @@
         <v>1</v>
       </c>
       <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4">
         <v>0.5</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <v>0</v>
       </c>
     </row>
